--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy - Copy/UPDATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EB760B3B-E837-465F-A7C7-1FE9EFBF4DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28CF3E00-9ACA-402C-B9D4-7BAA1894FF1C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{09195280-F898-47AA-8D69-3157BB34AB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E36F3EFE-F2D8-41E5-AD32-F74BA0BBE2EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9124,7 +9124,7 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -9179,6 +9179,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5303" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5303" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5306">
     <cellStyle name="???????" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -17033,7 +17034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -17194,16 +17195,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:K36"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
@@ -17381,32 +17382,16 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="41"/>
       <c r="H15" s="5" t="s">
         <v>38</v>
       </c>
@@ -17421,18 +17406,6 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>831</v>
-      </c>
-      <c r="D16" s="42">
-        <v>0</v>
-      </c>
-      <c r="E16" s="41">
-        <v>5</v>
-      </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
@@ -17446,142 +17419,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="s">
+    <row r="18" spans="2:23" ht="19.5" customHeight="1"/>
+    <row r="19" spans="2:23" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:23">
+      <c r="T24" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="U24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="T25" t="s">
+        <v>154</v>
+      </c>
+      <c r="U25" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="T26" t="s">
+        <v>154</v>
+      </c>
+      <c r="U26" s="42" t="s">
+        <v>831</v>
+      </c>
+      <c r="V26" s="42">
+        <v>0</v>
+      </c>
+      <c r="W26" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="15.5">
+      <c r="B27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s">
+        <v>154</v>
+      </c>
+      <c r="U27" s="42" t="s">
         <v>832</v>
       </c>
-      <c r="D17" s="42">
+      <c r="V27" s="42">
         <v>0</v>
       </c>
-      <c r="E17" s="41">
+      <c r="W27" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B18" t="s">
+    <row r="28" spans="2:23">
+      <c r="T28" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="U28" s="43" t="s">
         <v>833</v>
       </c>
-      <c r="D18">
+      <c r="V28">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="W28">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B19" t="s">
+    <row r="29" spans="2:23" ht="17.5">
+      <c r="B29" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="T29" t="s">
         <v>154</v>
       </c>
-      <c r="C19" t="s">
+      <c r="U29" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4">
+      <c r="V29" s="4">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="W29">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>855</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>856</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>861</v>
-      </c>
-      <c r="D22" s="42">
-        <v>0</v>
-      </c>
-      <c r="E22" s="41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.5">
-      <c r="B26" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="17.5">
-      <c r="B28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.5">
-      <c r="B30" s="14" t="s">
-        <v>49</v>
-      </c>
+    <row r="30" spans="2:23" ht="15.5">
       <c r="I30" s="30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="13" thickBot="1">
-      <c r="B31" s="27" t="s">
+      <c r="T30" t="s">
+        <v>154</v>
+      </c>
+      <c r="U30" s="43" t="s">
+        <v>855</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="13">
+      <c r="B31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" t="s">
+        <v>154</v>
+      </c>
+      <c r="U31" s="43" t="s">
+        <v>856</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D32" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E32" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
-        <v>53</v>
+      <c r="T32" t="s">
+        <v>154</v>
+      </c>
+      <c r="U32" s="45" t="s">
+        <v>861</v>
+      </c>
+      <c r="V32" s="42">
+        <v>0</v>
+      </c>
+      <c r="W32" s="41">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -17589,16 +17578,28 @@
         <v>51</v>
       </c>
       <c r="C33" s="11">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
       </c>
       <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="2:9">
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="2:9">
@@ -17607,11 +17608,13 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="E36" s="6" t="s">
-        <v>857</v>
-      </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="E37" s="6" t="s">
+        <v>857</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{09195280-F898-47AA-8D69-3157BB34AB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E36F3EFE-F2D8-41E5-AD32-F74BA0BBE2EB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{09195280-F898-47AA-8D69-3157BB34AB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1693DA31-0B4E-4DC6-BA80-4F5F1C9B0B84}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="840">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -1335,12 +1335,6 @@
     <t>Dum commodity produce from  Cogeneration power plants AGR with CO2 storage</t>
   </si>
   <si>
-    <t>AUX_ESTBATS101</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Battery (Lead-acid) Bulk ELC Storage: DayNite</t>
-  </si>
-  <si>
     <t>SUPCO2P</t>
   </si>
   <si>
@@ -1359,12 +1353,6 @@
     <t>Dum to track Co2 exl. Tra co2</t>
   </si>
   <si>
-    <t>AUX_ESTBATS102</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Battery (Li-ion) Bulk ELC Storage: DayNite</t>
-  </si>
-  <si>
     <t>SUPCOXN</t>
   </si>
   <si>
@@ -1383,12 +1371,6 @@
     <t>Dum commodity produce from  Cogeneration power plants COM with CO2 storage</t>
   </si>
   <si>
-    <t>AUX_ESTBATS103</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Battery (NaS) Bulk ELC Storage: DayNite</t>
-  </si>
-  <si>
     <t>SUPCOXP</t>
   </si>
   <si>
@@ -1407,12 +1389,6 @@
     <t>Dummy ELCCO2N to allow for negative ELCCO2N</t>
   </si>
   <si>
-    <t>AUX_ESTBATS201</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Battery (Lead-acid) Bulk ELC Storage: DayNite/Seasonal</t>
-  </si>
-  <si>
     <t>SUPCXFN</t>
   </si>
   <si>
@@ -1431,12 +1407,6 @@
     <t>Dummy SUPCO2N to allow for negative SUPCO2N</t>
   </si>
   <si>
-    <t>AUX_ESTBATS202</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Battery (Li-ion) Bulk ELC Storage: DayNite/Seasonal</t>
-  </si>
-  <si>
     <t>SUPCXFP</t>
   </si>
   <si>
@@ -1455,12 +1425,6 @@
     <t>Carbon Dioxide - Combustion (ELC)</t>
   </si>
   <si>
-    <t>AUX_ESTCAESS00</t>
-  </si>
-  <si>
-    <t>Auxiliary input for BY-Diabatic CAES ELC Storage: DayNite</t>
-  </si>
-  <si>
     <t>SUPN2ON</t>
   </si>
   <si>
@@ -1479,12 +1443,6 @@
     <t>Elec sector process CO2 emissions</t>
   </si>
   <si>
-    <t>AUX_ESTCAESS101</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Diabatic CAES ELC Storage: DayNite</t>
-  </si>
-  <si>
     <t>SUPN2OP</t>
   </si>
   <si>
@@ -1503,12 +1461,6 @@
     <t>Dum commodity produce from EU-PU tech with CO2 storage</t>
   </si>
   <si>
-    <t>AUX_ESTCAESS102</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Adiabatic CAES ELC Storage: DayNite</t>
-  </si>
-  <si>
     <t>SUPNOXN</t>
   </si>
   <si>
@@ -1527,12 +1479,6 @@
     <t>Dum commodity produce from IND autoprod tech with CO2 storage</t>
   </si>
   <si>
-    <t>AUX_ESTCAESS201</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Diabatic CAES ELC Storage: DayNite/Seasonal</t>
-  </si>
-  <si>
     <t>SUPNOXP</t>
   </si>
   <si>
@@ -1551,12 +1497,6 @@
     <t>Captured CO2</t>
   </si>
   <si>
-    <t>AUX_ESTHYDPS101</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Pumped Hydro ELC Storage: DayNite</t>
-  </si>
-  <si>
     <t>SUPPMAN</t>
   </si>
   <si>
@@ -1570,12 +1510,6 @@
   </si>
   <si>
     <t>SUPSCO2N</t>
-  </si>
-  <si>
-    <t>AUX_ESTHYDPS201</t>
-  </si>
-  <si>
-    <t>Auxiliary input for Pumped Hydro ELC Storage: DayNite/Seasonal</t>
   </si>
   <si>
     <t>SUPPMAP</t>
@@ -16815,8 +16749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -17197,7 +17131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:E18"/>
     </sheetView>
   </sheetViews>
@@ -17272,7 +17206,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="D7" s="42">
         <v>0</v>
@@ -17286,7 +17220,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="D8" s="42">
         <v>0</v>
@@ -17300,7 +17234,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -17328,7 +17262,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -17346,7 +17280,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -17372,7 +17306,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="D13" s="42">
         <v>0</v>
@@ -17454,7 +17388,7 @@
         <v>154</v>
       </c>
       <c r="U26" s="42" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="V26" s="42">
         <v>0</v>
@@ -17471,7 +17405,7 @@
         <v>154</v>
       </c>
       <c r="U27" s="42" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="V27" s="42">
         <v>0</v>
@@ -17485,7 +17419,7 @@
         <v>154</v>
       </c>
       <c r="U28" s="43" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -17521,7 +17455,7 @@
         <v>154</v>
       </c>
       <c r="U30" s="43" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="V30" s="4">
         <v>0</v>
@@ -17538,7 +17472,7 @@
         <v>154</v>
       </c>
       <c r="U31" s="43" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="V31" s="4">
         <v>0</v>
@@ -17564,7 +17498,7 @@
         <v>154</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="V32" s="42">
         <v>0</v>
@@ -17613,7 +17547,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="E37" s="6" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -18294,7 +18228,7 @@
     </row>
     <row r="4" spans="2:12" ht="13">
       <c r="B4" s="17" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
@@ -18375,7 +18309,7 @@
     </row>
     <row r="10" spans="2:12" ht="14">
       <c r="B10" s="44" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -18470,23 +18404,23 @@
     </row>
     <row r="41" spans="5:7" ht="13">
       <c r="E41" s="14" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="F42" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="G42" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="F43" t="s">
         <v>117</v>
@@ -18497,7 +18431,7 @@
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="F44" t="s">
         <v>117</v>
@@ -18508,10 +18442,10 @@
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="F45" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="G45" s="18">
         <v>1000</v>
@@ -18519,10 +18453,10 @@
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="F46" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G46" s="18">
         <v>1000</v>
@@ -18530,7 +18464,7 @@
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="F47" t="s">
         <v>117</v>
@@ -18541,7 +18475,7 @@
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="F48" t="s">
         <v>117</v>
@@ -18552,7 +18486,7 @@
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="F49" t="s">
         <v>117</v>
@@ -18563,7 +18497,7 @@
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="F50" t="s">
         <v>117</v>
@@ -18574,10 +18508,10 @@
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="F51" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="G51" s="18">
         <v>1000000</v>
@@ -18585,7 +18519,7 @@
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
       <c r="F52" t="s">
         <v>117</v>
@@ -18596,7 +18530,7 @@
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>850</v>
+        <v>828</v>
       </c>
       <c r="F53" t="s">
         <v>117</v>
@@ -18607,7 +18541,7 @@
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="F54" t="s">
         <v>117</v>
@@ -18618,10 +18552,10 @@
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="F55" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="G55" s="18">
         <v>2.7777769999999999</v>
@@ -18629,7 +18563,7 @@
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="F56" t="s">
         <v>117</v>
@@ -18661,8 +18595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:CE184"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -18746,9 +18680,6 @@
       <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="K3" t="s">
-        <v>131</v>
-      </c>
       <c r="T3" t="s">
         <v>131</v>
       </c>
@@ -20690,6 +20621,9 @@
       <c r="E24" t="s">
         <v>117</v>
       </c>
+      <c r="G24" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="K24" t="s">
         <v>141</v>
       </c>
@@ -21235,40 +21169,25 @@
         <v>154</v>
       </c>
       <c r="T32" t="s">
-        <v>151</v>
-      </c>
-      <c r="U32" t="s">
-        <v>423</v>
-      </c>
-      <c r="V32" t="s">
-        <v>424</v>
-      </c>
-      <c r="W32" t="s">
-        <v>117</v>
-      </c>
-      <c r="X32" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD32" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE32" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BF32" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="BG32" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="BP32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BQ32" t="s">
         <v>150</v>
@@ -21279,49 +21198,34 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E33" t="s">
         <v>150</v>
       </c>
       <c r="T33" t="s">
-        <v>151</v>
-      </c>
-      <c r="U33" t="s">
-        <v>431</v>
-      </c>
-      <c r="V33" t="s">
-        <v>432</v>
-      </c>
-      <c r="W33" t="s">
-        <v>117</v>
-      </c>
-      <c r="X33" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD33" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE33" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="BF33" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BG33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO33" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="BP33" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BQ33" t="s">
         <v>150</v>
@@ -21332,10 +21236,10 @@
         <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E34" t="s">
         <v>150</v>
@@ -21344,40 +21248,25 @@
         <v>154</v>
       </c>
       <c r="T34" t="s">
-        <v>151</v>
-      </c>
-      <c r="U34" t="s">
-        <v>439</v>
-      </c>
-      <c r="V34" t="s">
-        <v>440</v>
-      </c>
-      <c r="W34" t="s">
-        <v>117</v>
-      </c>
-      <c r="X34" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD34" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE34" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="BF34" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="BG34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO34" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="BP34" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="BQ34" t="s">
         <v>150</v>
@@ -21388,49 +21277,34 @@
         <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D35" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E35" t="s">
         <v>150</v>
       </c>
       <c r="T35" t="s">
-        <v>151</v>
-      </c>
-      <c r="U35" t="s">
-        <v>447</v>
-      </c>
-      <c r="V35" t="s">
-        <v>448</v>
-      </c>
-      <c r="W35" t="s">
-        <v>117</v>
-      </c>
-      <c r="X35" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD35" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE35" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="BF35" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="BG35" s="2" t="s">
         <v>204</v>
       </c>
       <c r="BO35" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="BP35" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="BQ35" t="s">
         <v>150</v>
@@ -21441,49 +21315,34 @@
         <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D36" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E36" t="s">
         <v>150</v>
       </c>
       <c r="T36" t="s">
-        <v>151</v>
-      </c>
-      <c r="U36" t="s">
-        <v>455</v>
-      </c>
-      <c r="V36" t="s">
-        <v>456</v>
-      </c>
-      <c r="W36" t="s">
-        <v>117</v>
-      </c>
-      <c r="X36" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD36" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE36" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="BF36" s="2" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="BG36" s="2" t="s">
         <v>204</v>
       </c>
       <c r="BO36" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="BP36" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="BQ36" t="s">
         <v>204</v>
@@ -21494,49 +21353,34 @@
         <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D37" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E37" t="s">
         <v>150</v>
       </c>
       <c r="T37" t="s">
-        <v>151</v>
-      </c>
-      <c r="U37" t="s">
-        <v>463</v>
-      </c>
-      <c r="V37" t="s">
-        <v>464</v>
-      </c>
-      <c r="W37" t="s">
-        <v>117</v>
-      </c>
-      <c r="X37" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD37" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE37" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="BF37" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="BG37" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO37" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="BP37" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="BQ37" t="s">
         <v>204</v>
@@ -21547,49 +21391,34 @@
         <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D38" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E38" t="s">
         <v>150</v>
       </c>
       <c r="T38" t="s">
-        <v>151</v>
-      </c>
-      <c r="U38" t="s">
-        <v>471</v>
-      </c>
-      <c r="V38" t="s">
-        <v>472</v>
-      </c>
-      <c r="W38" t="s">
-        <v>117</v>
-      </c>
-      <c r="X38" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD38" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE38" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="BF38" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="BG38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO38" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="BP38" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="BQ38" t="s">
         <v>150</v>
@@ -21600,10 +21429,10 @@
         <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D39" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E39" t="s">
         <v>150</v>
@@ -21612,40 +21441,25 @@
         <v>154</v>
       </c>
       <c r="T39" t="s">
-        <v>151</v>
-      </c>
-      <c r="U39" t="s">
-        <v>479</v>
-      </c>
-      <c r="V39" t="s">
-        <v>480</v>
-      </c>
-      <c r="W39" t="s">
-        <v>117</v>
-      </c>
-      <c r="X39" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD39" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE39" s="2" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="BF39" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="BG39" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO39" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="BP39" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="BQ39" t="s">
         <v>150</v>
@@ -21656,10 +21470,10 @@
         <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D40" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E40" t="s">
         <v>150</v>
@@ -21668,40 +21482,25 @@
         <v>154</v>
       </c>
       <c r="T40" t="s">
-        <v>151</v>
-      </c>
-      <c r="U40" t="s">
-        <v>487</v>
-      </c>
-      <c r="V40" t="s">
-        <v>488</v>
-      </c>
-      <c r="W40" t="s">
-        <v>117</v>
-      </c>
-      <c r="X40" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD40" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE40" s="2" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="BF40" s="2" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="BG40" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO40" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="BP40" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="BQ40" t="s">
         <v>150</v>
@@ -21712,10 +21511,10 @@
         <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D41" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E41" t="s">
         <v>150</v>
@@ -21724,40 +21523,25 @@
         <v>154</v>
       </c>
       <c r="T41" t="s">
-        <v>151</v>
-      </c>
-      <c r="U41" t="s">
-        <v>495</v>
-      </c>
-      <c r="V41" t="s">
-        <v>496</v>
-      </c>
-      <c r="W41" t="s">
-        <v>117</v>
-      </c>
-      <c r="X41" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD41" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE41" s="2" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="BF41" s="2" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="BG41" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO41" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="BP41" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="BQ41" t="s">
         <v>150</v>
@@ -21768,7 +21552,7 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D42" t="s">
         <v>361</v>
@@ -21780,40 +21564,25 @@
         <v>154</v>
       </c>
       <c r="T42" t="s">
-        <v>151</v>
-      </c>
-      <c r="U42" t="s">
-        <v>502</v>
-      </c>
-      <c r="V42" t="s">
-        <v>503</v>
-      </c>
-      <c r="W42" t="s">
-        <v>117</v>
-      </c>
-      <c r="X42" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="BD42" s="2" t="s">
         <v>141</v>
       </c>
       <c r="BE42" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="BF42" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="BG42" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO42" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="BP42" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="BQ42" t="s">
         <v>150</v>
@@ -21824,10 +21593,10 @@
         <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="E43" t="s">
         <v>150</v>
@@ -21839,19 +21608,19 @@
         <v>141</v>
       </c>
       <c r="BE43" s="2" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="BF43" s="2" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="BG43" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO43" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="BP43" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="BQ43" t="s">
         <v>150</v>
@@ -21862,22 +21631,22 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="D44" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="E44" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="T44" t="s">
         <v>144</v>
       </c>
       <c r="U44" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="V44" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="W44" t="s">
         <v>117</v>
@@ -21886,19 +21655,19 @@
         <v>141</v>
       </c>
       <c r="BE44" s="2" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="BF44" s="2" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="BG44" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO44" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="BP44" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="BQ44" t="s">
         <v>150</v>
@@ -21909,22 +21678,22 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="E45" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="T45" t="s">
         <v>144</v>
       </c>
       <c r="U45" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="V45" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="W45" t="s">
         <v>117</v>
@@ -21933,19 +21702,19 @@
         <v>141</v>
       </c>
       <c r="BE45" s="2" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="BF45" s="2" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="BG45" s="2" t="s">
         <v>204</v>
       </c>
       <c r="BO45" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="BP45" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="BQ45" t="s">
         <v>150</v>
@@ -21959,7 +21728,7 @@
         <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="E46" t="s">
         <v>117</v>
@@ -21968,7 +21737,7 @@
         <v>155</v>
       </c>
       <c r="H46" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="I46" t="s">
         <v>110</v>
@@ -21977,10 +21746,10 @@
         <v>144</v>
       </c>
       <c r="U46" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="V46" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="W46" t="s">
         <v>117</v>
@@ -21989,19 +21758,19 @@
         <v>141</v>
       </c>
       <c r="BE46" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="BF46" s="2" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="BG46" s="2" t="s">
         <v>204</v>
       </c>
       <c r="BO46" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="BP46" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="BQ46" t="s">
         <v>150</v>
@@ -22015,10 +21784,10 @@
         <v>144</v>
       </c>
       <c r="U47" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="V47" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="W47" t="s">
         <v>117</v>
@@ -22027,19 +21796,19 @@
         <v>141</v>
       </c>
       <c r="BE47" s="2" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="BF47" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="BG47" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO47" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="BP47" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="BQ47" t="s">
         <v>204</v>
@@ -22053,10 +21822,10 @@
         <v>144</v>
       </c>
       <c r="U48" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="V48" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="W48" t="s">
         <v>117</v>
@@ -22065,19 +21834,19 @@
         <v>141</v>
       </c>
       <c r="BE48" s="2" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="BF48" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="BG48" s="2" t="s">
         <v>150</v>
       </c>
       <c r="BO48" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="BP48" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="BQ48" t="s">
         <v>204</v>
@@ -22091,10 +21860,10 @@
         <v>144</v>
       </c>
       <c r="U49" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="V49" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="W49" t="s">
         <v>117</v>
@@ -22103,10 +21872,10 @@
         <v>141</v>
       </c>
       <c r="BE49" s="2" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="BF49" s="2" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="BG49" s="2" t="s">
         <v>150</v>
@@ -22120,10 +21889,10 @@
         <v>144</v>
       </c>
       <c r="U50" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="V50" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="W50" t="s">
         <v>117</v>
@@ -22132,10 +21901,10 @@
         <v>141</v>
       </c>
       <c r="BE50" s="2" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="BF50" s="2" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="BG50" s="2" t="s">
         <v>150</v>
@@ -22149,10 +21918,10 @@
         <v>144</v>
       </c>
       <c r="U51" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="V51" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="W51" t="s">
         <v>117</v>
@@ -22161,7 +21930,7 @@
         <v>155</v>
       </c>
       <c r="Z51" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="AA51" t="s">
         <v>110</v>
@@ -22170,10 +21939,10 @@
         <v>141</v>
       </c>
       <c r="BE51" s="2" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="BF51" s="2" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="BG51" s="2" t="s">
         <v>150</v>
@@ -22187,10 +21956,10 @@
         <v>144</v>
       </c>
       <c r="U52" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="V52" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="W52" t="s">
         <v>117</v>
@@ -22202,10 +21971,10 @@
         <v>42</v>
       </c>
       <c r="BE52" s="1" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="BF52" s="1" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="BG52" s="2" t="s">
         <v>150</v>
@@ -22219,10 +21988,10 @@
         <v>144</v>
       </c>
       <c r="U53" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="V53" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="W53" t="s">
         <v>117</v>
@@ -22231,10 +22000,10 @@
         <v>42</v>
       </c>
       <c r="BE53" s="1" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="BF53" s="1" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="BG53" s="2" t="s">
         <v>150</v>
@@ -22248,10 +22017,10 @@
         <v>144</v>
       </c>
       <c r="U54" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="V54" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="W54" t="s">
         <v>117</v>
@@ -22260,10 +22029,10 @@
         <v>42</v>
       </c>
       <c r="BE54" s="1" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="BF54" s="1" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="BG54" s="2" t="s">
         <v>150</v>
@@ -22277,7 +22046,7 @@
         <v>110</v>
       </c>
       <c r="V55" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="W55" t="s">
         <v>117</v>
@@ -22286,7 +22055,7 @@
         <v>155</v>
       </c>
       <c r="Z55" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="AA55" t="s">
         <v>110</v>
@@ -22295,10 +22064,10 @@
         <v>42</v>
       </c>
       <c r="BE55" s="1" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="BF55" s="1" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="BG55" s="2" t="s">
         <v>150</v>
@@ -22309,10 +22078,10 @@
         <v>144</v>
       </c>
       <c r="U56" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="V56" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="W56" t="s">
         <v>117</v>
@@ -22321,10 +22090,10 @@
         <v>42</v>
       </c>
       <c r="BE56" s="1" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="BF56" s="1" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="BG56" s="2" t="s">
         <v>150</v>
@@ -22335,10 +22104,10 @@
         <v>144</v>
       </c>
       <c r="U57" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="V57" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="W57" t="s">
         <v>117</v>
@@ -22347,10 +22116,10 @@
         <v>42</v>
       </c>
       <c r="BE57" s="1" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="BF57" s="1" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="BG57" s="2" t="s">
         <v>150</v>
@@ -22361,10 +22130,10 @@
         <v>144</v>
       </c>
       <c r="U58" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="V58" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="W58" t="s">
         <v>117</v>
@@ -22379,10 +22148,10 @@
         <v>42</v>
       </c>
       <c r="BE58" s="1" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="BF58" s="1" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="BG58" s="2" t="s">
         <v>150</v>
@@ -22393,10 +22162,10 @@
         <v>144</v>
       </c>
       <c r="U59" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="V59" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="W59" t="s">
         <v>117</v>
@@ -22405,10 +22174,10 @@
         <v>42</v>
       </c>
       <c r="BE59" s="1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="BF59" s="1" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="BG59" s="2" t="s">
         <v>150</v>
@@ -22419,10 +22188,10 @@
         <v>144</v>
       </c>
       <c r="U60" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="V60" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="W60" t="s">
         <v>117</v>
@@ -22431,10 +22200,10 @@
         <v>42</v>
       </c>
       <c r="BE60" s="1" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="BF60" s="1" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="BG60" s="2" t="s">
         <v>150</v>
@@ -22445,10 +22214,10 @@
         <v>144</v>
       </c>
       <c r="U61" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="V61" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="W61" t="s">
         <v>117</v>
@@ -22457,10 +22226,10 @@
         <v>42</v>
       </c>
       <c r="BE61" s="1" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="BF61" s="1" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="BG61" s="2" t="s">
         <v>150</v>
@@ -22471,10 +22240,10 @@
         <v>144</v>
       </c>
       <c r="U62" s="7" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="V62" s="7" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="W62" t="s">
         <v>117</v>
@@ -22483,10 +22252,10 @@
         <v>42</v>
       </c>
       <c r="BE62" s="1" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="BF62" s="1" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="BG62" s="2" t="s">
         <v>150</v>
@@ -22497,10 +22266,10 @@
         <v>144</v>
       </c>
       <c r="U63" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="V63" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="W63" t="s">
         <v>117</v>
@@ -22509,13 +22278,13 @@
         <v>42</v>
       </c>
       <c r="BE63" s="1" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="BF63" s="1" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="BG63" s="2" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="2:59">
@@ -22523,10 +22292,10 @@
         <v>144</v>
       </c>
       <c r="U64" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="V64" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="W64" t="s">
         <v>117</v>
@@ -22535,10 +22304,10 @@
         <v>42</v>
       </c>
       <c r="BE64" s="1" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="BF64" s="1" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="BG64" s="2" t="s">
         <v>150</v>
@@ -22549,10 +22318,10 @@
         <v>144</v>
       </c>
       <c r="U65" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="V65" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="W65" t="s">
         <v>117</v>
@@ -22561,10 +22330,10 @@
         <v>42</v>
       </c>
       <c r="BE65" s="1" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="BF65" s="1" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="BG65" s="2" t="s">
         <v>150</v>
@@ -22575,10 +22344,10 @@
         <v>144</v>
       </c>
       <c r="U66" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="V66" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="W66" t="s">
         <v>117</v>
@@ -22587,10 +22356,10 @@
         <v>42</v>
       </c>
       <c r="BE66" s="1" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="BF66" s="1" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="BG66" s="2" t="s">
         <v>150</v>
@@ -22601,10 +22370,10 @@
         <v>144</v>
       </c>
       <c r="U67" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="V67" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="W67" t="s">
         <v>117</v>
@@ -22613,10 +22382,10 @@
         <v>42</v>
       </c>
       <c r="BE67" s="1" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="BF67" s="1" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="BG67" s="2" t="s">
         <v>204</v>
@@ -22627,10 +22396,10 @@
         <v>144</v>
       </c>
       <c r="U68" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="V68" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="W68" t="s">
         <v>117</v>
@@ -22639,13 +22408,13 @@
         <v>42</v>
       </c>
       <c r="BE68" s="1" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="BF68" s="1" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="BG68" s="2" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69" spans="20:60">
@@ -22653,10 +22422,10 @@
         <v>144</v>
       </c>
       <c r="U69" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="V69" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="W69" t="s">
         <v>117</v>
@@ -22665,10 +22434,10 @@
         <v>42</v>
       </c>
       <c r="BE69" s="1" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="BF69" s="1" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="BG69" s="2" t="s">
         <v>150</v>
@@ -22679,10 +22448,10 @@
         <v>144</v>
       </c>
       <c r="U70" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="V70" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="W70" t="s">
         <v>117</v>
@@ -22691,13 +22460,13 @@
         <v>42</v>
       </c>
       <c r="BE70" s="1" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="BF70" s="1" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="BG70" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="20:60">
@@ -22705,10 +22474,10 @@
         <v>144</v>
       </c>
       <c r="U71" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="V71" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="W71" t="s">
         <v>117</v>
@@ -22720,13 +22489,13 @@
         <v>42</v>
       </c>
       <c r="BE71" s="1" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="BF71" s="1" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="BG71" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="20:60">
@@ -22734,10 +22503,10 @@
         <v>144</v>
       </c>
       <c r="U72" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="V72" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="W72" t="s">
         <v>117</v>
@@ -22746,22 +22515,22 @@
         <v>155</v>
       </c>
       <c r="Z72" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="AA72" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="BD72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BE72" s="1" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="BF72" s="1" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="BG72" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="20:60">
@@ -22769,7 +22538,7 @@
         <v>144</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="W73" t="s">
         <v>117</v>
@@ -22778,13 +22547,13 @@
         <v>42</v>
       </c>
       <c r="BE73" s="1" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="BF73" s="1" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="BG73" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="20:60">
@@ -22792,7 +22561,7 @@
         <v>144</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="W74" t="s">
         <v>117</v>
@@ -22801,13 +22570,13 @@
         <v>42</v>
       </c>
       <c r="BE74" s="1" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="BF74" s="1" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="BG74" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="20:60">
@@ -22815,7 +22584,7 @@
         <v>144</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="W75" t="s">
         <v>117</v>
@@ -22824,13 +22593,13 @@
         <v>42</v>
       </c>
       <c r="BE75" s="1" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="BF75" s="1" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="BG75" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="20:60">
@@ -22838,10 +22607,10 @@
         <v>141</v>
       </c>
       <c r="U76" s="6" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="W76" s="43" t="s">
         <v>150</v>
@@ -22850,13 +22619,13 @@
         <v>42</v>
       </c>
       <c r="BE76" s="1" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="BF76" s="1" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="BG76" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="20:60">
@@ -22864,13 +22633,13 @@
         <v>42</v>
       </c>
       <c r="BE77" s="1" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="BF77" s="1" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="BG77" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="20:60">
@@ -22878,10 +22647,10 @@
         <v>42</v>
       </c>
       <c r="BE78" s="1" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="BF78" s="1" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="BG78" s="2" t="s">
         <v>150</v>
@@ -22892,10 +22661,10 @@
         <v>42</v>
       </c>
       <c r="BE79" s="1" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="BF79" s="1" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="BG79" s="2" t="s">
         <v>150</v>
@@ -22909,10 +22678,10 @@
         <v>42</v>
       </c>
       <c r="BE80" s="1" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="BF80" s="1" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="BG80" s="2" t="s">
         <v>150</v>
@@ -22926,10 +22695,10 @@
         <v>42</v>
       </c>
       <c r="BE81" s="1" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="BF81" s="1" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="BG81" s="2" t="s">
         <v>150</v>
@@ -22943,10 +22712,10 @@
         <v>42</v>
       </c>
       <c r="BE82" s="1" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="BF82" s="1" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="BG82" s="2" t="s">
         <v>150</v>
@@ -22960,10 +22729,10 @@
         <v>42</v>
       </c>
       <c r="BE83" s="1" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="BF83" s="1" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="BG83" s="2" t="s">
         <v>150</v>
@@ -22977,10 +22746,10 @@
         <v>42</v>
       </c>
       <c r="BE84" s="1" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="BF84" s="1" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="BG84" s="2" t="s">
         <v>150</v>
@@ -22994,10 +22763,10 @@
         <v>42</v>
       </c>
       <c r="BE85" s="1" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="BF85" s="1" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="BG85" s="2" t="s">
         <v>150</v>
@@ -23011,10 +22780,10 @@
         <v>42</v>
       </c>
       <c r="BE86" s="1" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="BF86" s="1" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="BG86" s="2" t="s">
         <v>150</v>
@@ -23028,10 +22797,10 @@
         <v>42</v>
       </c>
       <c r="BE87" s="1" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="BF87" s="1" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="BG87" s="2" t="s">
         <v>150</v>
@@ -23045,10 +22814,10 @@
         <v>42</v>
       </c>
       <c r="BE88" s="1" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="BF88" s="1" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="BG88" s="2" t="s">
         <v>150</v>
@@ -23062,10 +22831,10 @@
         <v>42</v>
       </c>
       <c r="BE89" s="1" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="BF89" s="1" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="BG89" s="2" t="s">
         <v>150</v>
@@ -23079,10 +22848,10 @@
         <v>42</v>
       </c>
       <c r="BE90" s="1" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="BF90" s="1" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="BG90" s="2" t="s">
         <v>150</v>
@@ -23096,10 +22865,10 @@
         <v>42</v>
       </c>
       <c r="BE91" s="1" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="BF91" s="1" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="BG91" s="2" t="s">
         <v>150</v>
@@ -23113,10 +22882,10 @@
         <v>42</v>
       </c>
       <c r="BE92" s="1" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="BF92" s="1" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="BG92" s="2" t="s">
         <v>117</v>
@@ -23127,10 +22896,10 @@
         <v>42</v>
       </c>
       <c r="BE93" s="1" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="BF93" s="1" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="BG93" s="2" t="s">
         <v>117</v>
@@ -23147,10 +22916,10 @@
         <v>42</v>
       </c>
       <c r="BE94" s="1" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="BF94" s="1" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="BG94" s="2" t="s">
         <v>117</v>
@@ -23167,10 +22936,10 @@
         <v>42</v>
       </c>
       <c r="BE95" s="1" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="BF95" s="1" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="BG95" s="2" t="s">
         <v>117</v>
@@ -23187,10 +22956,10 @@
         <v>42</v>
       </c>
       <c r="BE96" s="1" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="BF96" s="1" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="BG96" s="2" t="s">
         <v>150</v>
@@ -23201,10 +22970,10 @@
         <v>42</v>
       </c>
       <c r="BE97" s="1" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="BF97" s="1" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="BG97" s="2" t="s">
         <v>117</v>
@@ -23215,10 +22984,10 @@
         <v>42</v>
       </c>
       <c r="BE98" s="1" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="BF98" s="1" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="BG98" s="2" t="s">
         <v>117</v>
@@ -23229,10 +22998,10 @@
         <v>42</v>
       </c>
       <c r="BE99" s="1" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="BF99" s="1" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="BG99" s="2" t="s">
         <v>150</v>
@@ -23243,10 +23012,10 @@
         <v>42</v>
       </c>
       <c r="BE100" s="1" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="BF100" s="1" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="BG100" s="2" t="s">
         <v>117</v>
@@ -23260,7 +23029,7 @@
         <v>324</v>
       </c>
       <c r="BF101" s="1" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="BG101" s="2" t="s">
         <v>117</v>
@@ -23274,10 +23043,10 @@
         <v>42</v>
       </c>
       <c r="BE102" s="1" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="BF102" s="1" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="BG102" s="2" t="s">
         <v>117</v>
@@ -23288,10 +23057,10 @@
         <v>42</v>
       </c>
       <c r="BE103" s="1" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="BF103" s="1" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="BG103" s="2" t="s">
         <v>150</v>
@@ -23302,10 +23071,10 @@
         <v>42</v>
       </c>
       <c r="BE104" s="1" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="BF104" s="1" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="BG104" s="2" t="s">
         <v>150</v>
@@ -23316,10 +23085,10 @@
         <v>42</v>
       </c>
       <c r="BE105" s="1" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="BF105" s="1" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="BG105" s="2" t="s">
         <v>117</v>
@@ -23330,10 +23099,10 @@
         <v>42</v>
       </c>
       <c r="BE106" s="1" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="BF106" s="1" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="BG106" s="2" t="s">
         <v>117</v>
@@ -23347,7 +23116,7 @@
         <v>334</v>
       </c>
       <c r="BF107" s="1" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="BG107" s="2" t="s">
         <v>117</v>
@@ -23358,10 +23127,10 @@
         <v>42</v>
       </c>
       <c r="BE108" s="1" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="BF108" s="1" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="BG108" s="2" t="s">
         <v>150</v>
@@ -23372,10 +23141,10 @@
         <v>42</v>
       </c>
       <c r="BE109" s="1" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="BF109" s="1" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="BG109" s="2" t="s">
         <v>150</v>
@@ -23386,10 +23155,10 @@
         <v>42</v>
       </c>
       <c r="BE110" s="1" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="BF110" s="1" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="BG110" s="2" t="s">
         <v>117</v>
@@ -23400,10 +23169,10 @@
         <v>42</v>
       </c>
       <c r="BE111" s="1" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="BF111" s="1" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="BG111" s="2" t="s">
         <v>117</v>
@@ -23414,10 +23183,10 @@
         <v>42</v>
       </c>
       <c r="BE112" s="1" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="BF112" s="1" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="BG112" s="2" t="s">
         <v>150</v>
@@ -23428,10 +23197,10 @@
         <v>42</v>
       </c>
       <c r="BE113" s="1" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="BF113" s="1" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="BG113" s="2" t="s">
         <v>117</v>
@@ -23442,10 +23211,10 @@
         <v>42</v>
       </c>
       <c r="BE114" s="1" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="BF114" s="1" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="BG114" s="2" t="s">
         <v>117</v>
@@ -23459,7 +23228,7 @@
         <v>344</v>
       </c>
       <c r="BF115" s="1" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="BG115" s="2" t="s">
         <v>117</v>
@@ -23470,10 +23239,10 @@
         <v>42</v>
       </c>
       <c r="BE116" s="1" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="BF116" s="1" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="BG116" s="2" t="s">
         <v>150</v>
@@ -23484,10 +23253,10 @@
         <v>42</v>
       </c>
       <c r="BE117" s="1" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="BF117" s="1" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="BG117" s="2" t="s">
         <v>150</v>
@@ -23501,7 +23270,7 @@
         <v>314</v>
       </c>
       <c r="BF118" s="1" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="BG118" s="2" t="s">
         <v>117</v>
@@ -23512,10 +23281,10 @@
         <v>42</v>
       </c>
       <c r="BE119" s="1" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="BF119" s="1" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="BG119" s="2" t="s">
         <v>117</v>
@@ -23526,10 +23295,10 @@
         <v>42</v>
       </c>
       <c r="BE120" s="1" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="BF120" s="1" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="BG120" s="2" t="s">
         <v>150</v>
@@ -23543,7 +23312,7 @@
         <v>192</v>
       </c>
       <c r="BF121" s="10" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="BG121" s="10" t="s">
         <v>117</v>
@@ -23557,7 +23326,7 @@
         <v>164</v>
       </c>
       <c r="BF122" s="2" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="BG122" s="2" t="s">
         <v>117</v>
@@ -23571,7 +23340,7 @@
         <v>145</v>
       </c>
       <c r="BF123" s="2" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="BG123" s="2" t="s">
         <v>117</v>
@@ -23585,7 +23354,7 @@
         <v>180</v>
       </c>
       <c r="BF124" s="2" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="BG124" s="2" t="s">
         <v>117</v>
@@ -23596,10 +23365,10 @@
         <v>144</v>
       </c>
       <c r="BE125" s="2" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="BF125" s="2" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="BG125" s="2" t="s">
         <v>117</v>
@@ -23610,10 +23379,10 @@
         <v>144</v>
       </c>
       <c r="BE126" s="2" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="BF126" s="2" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="BG126" s="2" t="s">
         <v>117</v>
@@ -23624,10 +23393,10 @@
         <v>144</v>
       </c>
       <c r="BE127" s="2" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="BF127" s="2" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="BG127" s="2" t="s">
         <v>117</v>
@@ -23638,10 +23407,10 @@
         <v>144</v>
       </c>
       <c r="BE128" s="2" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="BF128" s="2" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="BG128" s="2" t="s">
         <v>117</v>
@@ -23655,10 +23424,10 @@
         <v>144</v>
       </c>
       <c r="BE129" s="2" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="BF129" s="2" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="BG129" s="2" t="s">
         <v>117</v>
@@ -23669,10 +23438,10 @@
         <v>144</v>
       </c>
       <c r="BE130" s="2" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="BF130" s="2" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="BG130" s="2" t="s">
         <v>117</v>
@@ -23683,10 +23452,10 @@
         <v>42</v>
       </c>
       <c r="BE131" s="2" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="BF131" s="2" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="BG131" s="2" t="s">
         <v>117</v>
@@ -23697,10 +23466,10 @@
         <v>144</v>
       </c>
       <c r="BE132" s="2" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="BF132" s="2" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="BG132" s="2" t="s">
         <v>117</v>
@@ -23714,7 +23483,7 @@
         <v>293</v>
       </c>
       <c r="BF133" s="2" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="BG133" s="2" t="s">
         <v>117</v>
@@ -23725,10 +23494,10 @@
         <v>42</v>
       </c>
       <c r="BE134" s="2" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="BF134" s="2" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="BG134" s="2" t="s">
         <v>117</v>
@@ -23745,7 +23514,7 @@
         <v>269</v>
       </c>
       <c r="BF135" s="2" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="BG135" s="2" t="s">
         <v>117</v>
@@ -23762,7 +23531,7 @@
         <v>281</v>
       </c>
       <c r="BF136" s="2" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="BG136" s="2" t="s">
         <v>117</v>
@@ -23776,10 +23545,10 @@
         <v>42</v>
       </c>
       <c r="BE137" s="1" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="BF137" s="1" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="BG137" s="2" t="s">
         <v>117</v>
@@ -23793,10 +23562,10 @@
         <v>144</v>
       </c>
       <c r="BE138" s="11" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="BF138" s="11" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="BG138" s="2" t="s">
         <v>117</v>
@@ -23810,10 +23579,10 @@
         <v>144</v>
       </c>
       <c r="BE139" s="2" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="BF139" s="2" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="BG139" s="2" t="s">
         <v>117</v>
@@ -23830,7 +23599,7 @@
         <v>303</v>
       </c>
       <c r="BF140" s="12" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="BG140" s="12" t="s">
         <v>117</v>
@@ -23841,16 +23610,16 @@
         <v>42</v>
       </c>
       <c r="BE141" s="1" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="BF141" s="1" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="BG141" s="2" t="s">
         <v>117</v>
       </c>
       <c r="BI141" s="2" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
     </row>
     <row r="142" spans="56:61">
@@ -23858,10 +23627,10 @@
         <v>42</v>
       </c>
       <c r="BE142" s="1" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="BF142" s="1" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="BG142" s="2" t="s">
         <v>117</v>
@@ -23872,10 +23641,10 @@
         <v>144</v>
       </c>
       <c r="BE143" s="2" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="BF143" s="2" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="BG143" s="2" t="s">
         <v>117</v>
@@ -23889,7 +23658,7 @@
         <v>249</v>
       </c>
       <c r="BF144" s="2" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="BG144" s="2" t="s">
         <v>117</v>
@@ -23900,10 +23669,10 @@
         <v>42</v>
       </c>
       <c r="BE145" s="5" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="BF145" s="5" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="BG145" s="2" t="s">
         <v>150</v>
@@ -23914,10 +23683,10 @@
         <v>42</v>
       </c>
       <c r="BE146" s="2" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="BF146" s="2" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="BG146" s="2" t="s">
         <v>117</v>
@@ -23928,10 +23697,10 @@
         <v>144</v>
       </c>
       <c r="BE147" s="2" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="BF147" s="2" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="BG147" s="2" t="s">
         <v>117</v>
@@ -23942,10 +23711,10 @@
         <v>42</v>
       </c>
       <c r="BE148" s="2" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="BF148" s="2" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="BG148" s="2" t="s">
         <v>150</v>
@@ -23959,7 +23728,7 @@
         <v>239</v>
       </c>
       <c r="BF149" s="2" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="BG149" s="2" t="s">
         <v>117</v>
@@ -23970,10 +23739,10 @@
         <v>144</v>
       </c>
       <c r="BE150" s="2" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="BF150" s="2" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="BG150" s="2" t="s">
         <v>117</v>
@@ -23984,10 +23753,10 @@
         <v>42</v>
       </c>
       <c r="BE151" s="2" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="BF151" s="2" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="BG151" s="2" t="s">
         <v>150</v>
@@ -24020,10 +23789,10 @@
         <v>144</v>
       </c>
       <c r="BE154" s="2" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="BF154" s="2" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="BG154" s="2" t="s">
         <v>117</v>
@@ -24034,10 +23803,10 @@
         <v>144</v>
       </c>
       <c r="BE155" s="2" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="BF155" s="2" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="BG155" s="2" t="s">
         <v>117</v>
@@ -24048,10 +23817,10 @@
         <v>144</v>
       </c>
       <c r="BE156" s="2" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="BF156" s="2" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="BG156" s="2" t="s">
         <v>117</v>
@@ -24062,10 +23831,10 @@
         <v>144</v>
       </c>
       <c r="BE157" s="2" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="BF157" s="2" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="BG157" s="2" t="s">
         <v>117</v>
@@ -24076,10 +23845,10 @@
         <v>144</v>
       </c>
       <c r="BE158" s="2" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="BF158" s="2" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="BG158" s="2" t="s">
         <v>117</v>
@@ -24090,10 +23859,10 @@
         <v>144</v>
       </c>
       <c r="BE159" s="2" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="BF159" s="2" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="BG159" s="2" t="s">
         <v>117</v>
@@ -24104,10 +23873,10 @@
         <v>144</v>
       </c>
       <c r="BE160" s="2" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="BF160" s="2" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="BG160" s="2" t="s">
         <v>117</v>
@@ -24118,10 +23887,10 @@
         <v>42</v>
       </c>
       <c r="BE161" s="2" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="BF161" s="2" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="BG161" s="2" t="s">
         <v>150</v>
@@ -24135,7 +23904,7 @@
         <v>354</v>
       </c>
       <c r="BF162" s="2" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="BG162" s="2" t="s">
         <v>117</v>
@@ -24149,7 +23918,7 @@
         <v>364</v>
       </c>
       <c r="BF163" s="2" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="BG163" s="2" t="s">
         <v>117</v>
@@ -24163,7 +23932,7 @@
         <v>372</v>
       </c>
       <c r="BF164" s="2" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="BG164" s="2" t="s">
         <v>117</v>
@@ -24177,7 +23946,7 @@
         <v>380</v>
       </c>
       <c r="BF165" s="2" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="BG165" s="2" t="s">
         <v>117</v>
@@ -24188,10 +23957,10 @@
         <v>144</v>
       </c>
       <c r="BE166" s="2" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="BF166" s="2" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="BG166" s="2" t="s">
         <v>117</v>
@@ -24202,16 +23971,16 @@
         <v>144</v>
       </c>
       <c r="BE167" s="2" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="BF167" s="2" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="BG167" s="2" t="s">
         <v>117</v>
       </c>
       <c r="BI167" s="2" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="56:61">
@@ -24219,10 +23988,10 @@
         <v>144</v>
       </c>
       <c r="BE168" s="2" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="BF168" s="2" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="BG168" s="2" t="s">
         <v>117</v>
@@ -24233,10 +24002,10 @@
         <v>144</v>
       </c>
       <c r="BE169" s="2" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="BF169" s="2" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="BG169" s="2" t="s">
         <v>117</v>
@@ -24247,10 +24016,10 @@
         <v>144</v>
       </c>
       <c r="BE170" s="2" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="BF170" s="2" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="BG170" s="2" t="s">
         <v>117</v>
@@ -24261,10 +24030,10 @@
         <v>144</v>
       </c>
       <c r="BE171" s="2" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="BF171" s="2" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="BG171" s="2" t="s">
         <v>117</v>
@@ -24278,10 +24047,10 @@
         <v>144</v>
       </c>
       <c r="BE172" s="2" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="BF172" s="2" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="BG172" s="2" t="s">
         <v>117</v>
@@ -24295,10 +24064,10 @@
         <v>42</v>
       </c>
       <c r="BE173" s="7" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="BF173" s="7" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="BG173" s="7" t="s">
         <v>117</v>
@@ -24313,10 +24082,10 @@
         <v>144</v>
       </c>
       <c r="BE174" s="2" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="BF174" s="2" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="BG174" s="2" t="s">
         <v>117</v>
@@ -24327,10 +24096,10 @@
         <v>144</v>
       </c>
       <c r="BE175" s="2" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="BF175" s="2" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="BG175" s="2" t="s">
         <v>117</v>
@@ -24341,10 +24110,10 @@
         <v>42</v>
       </c>
       <c r="BE176" s="2" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="BF176" s="2" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="BG176" s="2" t="s">
         <v>117</v>
@@ -24355,10 +24124,10 @@
         <v>42</v>
       </c>
       <c r="BE177" s="2" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="BF177" s="2" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="BG177" s="2" t="s">
         <v>150</v>
@@ -24369,10 +24138,10 @@
         <v>42</v>
       </c>
       <c r="BE178" s="2" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="BF178" s="2" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="BG178" s="2" t="s">
         <v>117</v>
@@ -24389,10 +24158,10 @@
         <v>42</v>
       </c>
       <c r="BE179" s="2" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="BF179" s="2" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="BG179" s="2" t="s">
         <v>117</v>
@@ -24409,10 +24178,10 @@
         <v>42</v>
       </c>
       <c r="BE180" s="2" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="BF180" s="2" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="BG180" s="2" t="s">
         <v>117</v>
@@ -24423,10 +24192,10 @@
         <v>42</v>
       </c>
       <c r="BE181" s="2" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="BF181" s="2" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="BG181" s="2" t="s">
         <v>117</v>
